--- a/配置表test/template.xlsx
+++ b/配置表test/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eyewind/someproj/x2j/配置表test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70528CE2-1095-9343-BFEA-59A4E499A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC88E102-8DCF-2746-95AB-4AB95A4041EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="-28300" windowWidth="36060" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#PlatformData|平台怪物表" sheetId="41" r:id="rId1"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D217F0-9386-3145-B990-2DE4166BAA37}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
